--- a/Code/Results/Cases/Case_5_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_81/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.54149532268305</v>
+        <v>11.33622468515689</v>
       </c>
       <c r="C2">
-        <v>7.267684072983053</v>
+        <v>4.246804205994255</v>
       </c>
       <c r="D2">
-        <v>7.519677512647087</v>
+        <v>9.042552701705244</v>
       </c>
       <c r="E2">
-        <v>11.03480306866728</v>
+        <v>13.63193449268408</v>
       </c>
       <c r="F2">
-        <v>23.77362475229269</v>
+        <v>33.75237425238953</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.402334870194334</v>
+        <v>9.96955608028912</v>
       </c>
       <c r="K2">
-        <v>11.8437260799128</v>
+        <v>10.71800481330014</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.52061675796652</v>
+        <v>19.32907680124848</v>
       </c>
       <c r="O2">
-        <v>16.7236989407579</v>
+        <v>25.54615279963864</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.62798616078628</v>
+        <v>11.0833433801261</v>
       </c>
       <c r="C3">
-        <v>6.859128757149642</v>
+        <v>4.023729007910307</v>
       </c>
       <c r="D3">
-        <v>7.14891255176873</v>
+        <v>8.98200666143981</v>
       </c>
       <c r="E3">
-        <v>10.55385111076731</v>
+        <v>13.56835971976751</v>
       </c>
       <c r="F3">
-        <v>23.3832988708399</v>
+        <v>33.79094773599699</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.293902839029728</v>
+        <v>9.97570660182655</v>
       </c>
       <c r="K3">
-        <v>11.10556969467964</v>
+        <v>10.54684682131501</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.72538434285747</v>
+        <v>19.39007248772496</v>
       </c>
       <c r="O3">
-        <v>16.67641897281321</v>
+        <v>25.61521826754155</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.03402205494776</v>
+        <v>10.92732458837231</v>
       </c>
       <c r="C4">
-        <v>6.595477273666631</v>
+        <v>3.879456251352308</v>
       </c>
       <c r="D4">
-        <v>6.914320690300137</v>
+        <v>8.946288665052165</v>
       </c>
       <c r="E4">
-        <v>10.25333908320256</v>
+        <v>13.53206170138501</v>
       </c>
       <c r="F4">
-        <v>23.16007486803707</v>
+        <v>33.82232951032452</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.22986877870758</v>
+        <v>9.981048082998392</v>
       </c>
       <c r="K4">
-        <v>10.62704678837974</v>
+        <v>10.44218786508059</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.85387062100278</v>
+        <v>19.42926453858477</v>
       </c>
       <c r="O4">
-        <v>16.66081741129948</v>
+        <v>25.66271270910524</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78361302768524</v>
+        <v>10.86365212720371</v>
       </c>
       <c r="C5">
-        <v>6.484857940114136</v>
+        <v>3.818859765322129</v>
       </c>
       <c r="D5">
-        <v>6.817101133749745</v>
+        <v>8.93211242421083</v>
       </c>
       <c r="E5">
-        <v>10.12974974694492</v>
+        <v>13.51797013938435</v>
       </c>
       <c r="F5">
-        <v>23.07324111968235</v>
+        <v>33.83705123336895</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.204429881493921</v>
+        <v>9.983618710367256</v>
       </c>
       <c r="K5">
-        <v>10.4256910209146</v>
+        <v>10.39970067960938</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.90694610976296</v>
+        <v>19.44567458088835</v>
       </c>
       <c r="O5">
-        <v>16.65772239543207</v>
+        <v>25.68334431743754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.74152622231825</v>
+        <v>10.85307654011682</v>
       </c>
       <c r="C6">
-        <v>6.466299027234279</v>
+        <v>3.808689879186618</v>
       </c>
       <c r="D6">
-        <v>6.800863984555258</v>
+        <v>8.929781726051914</v>
       </c>
       <c r="E6">
-        <v>10.10916541108578</v>
+        <v>13.51567286425033</v>
       </c>
       <c r="F6">
-        <v>23.05907168428542</v>
+        <v>33.83961245800074</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.200245798470749</v>
+        <v>9.984069362787988</v>
       </c>
       <c r="K6">
-        <v>10.39187267910984</v>
+        <v>10.3926570754595</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.91580316198129</v>
+        <v>19.44842600683022</v>
       </c>
       <c r="O6">
-        <v>16.65740214505816</v>
+        <v>25.68684725624409</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.0306788807875</v>
+        <v>10.9264661306821</v>
       </c>
       <c r="C7">
-        <v>6.593998235631291</v>
+        <v>3.87864628317807</v>
       </c>
       <c r="D7">
-        <v>6.913015940145993</v>
+        <v>8.946095927977094</v>
       </c>
       <c r="E7">
-        <v>10.25167662702531</v>
+        <v>13.53186880764533</v>
       </c>
       <c r="F7">
-        <v>23.15888707995716</v>
+        <v>33.8225202278557</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.229523026791671</v>
+        <v>9.981081155932534</v>
       </c>
       <c r="K7">
-        <v>10.62435694491951</v>
+        <v>10.44161414063493</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.85458348602765</v>
+        <v>19.42948407107269</v>
       </c>
       <c r="O7">
-        <v>16.66076261274551</v>
+        <v>25.6629857856886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.23335025010958</v>
+        <v>11.24924244445613</v>
       </c>
       <c r="C8">
-        <v>7.129489909204056</v>
+        <v>4.171421182082246</v>
       </c>
       <c r="D8">
-        <v>7.393346439785489</v>
+        <v>9.021381674150639</v>
       </c>
       <c r="E8">
-        <v>10.87015269560637</v>
+        <v>13.6094532337912</v>
       </c>
       <c r="F8">
-        <v>23.63563174172465</v>
+        <v>33.76407565702539</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.364429483818363</v>
+        <v>9.971352220041329</v>
       </c>
       <c r="K8">
-        <v>11.5944595582968</v>
+        <v>10.65893162965606</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.59066219191011</v>
+        <v>19.34974767665808</v>
       </c>
       <c r="O8">
-        <v>16.70454210095029</v>
+        <v>25.56890929775288</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.33169055476299</v>
+        <v>11.87227593528181</v>
       </c>
       <c r="C9">
-        <v>8.076898869228213</v>
+        <v>4.686488946343938</v>
       </c>
       <c r="D9">
-        <v>8.275743879445578</v>
+        <v>9.180000155021679</v>
       </c>
       <c r="E9">
-        <v>12.03489527266397</v>
+        <v>13.78274926925017</v>
       </c>
       <c r="F9">
-        <v>24.70045624084413</v>
+        <v>33.71061283972599</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.648419621624598</v>
+        <v>9.964671247500929</v>
       </c>
       <c r="K9">
-        <v>13.29639213653511</v>
+        <v>11.08620502099705</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.0939091537749</v>
+        <v>19.20713362415489</v>
       </c>
       <c r="O9">
-        <v>16.90186911991682</v>
+        <v>25.42488916265317</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.71799836272532</v>
+        <v>12.31890842837118</v>
       </c>
       <c r="C10">
-        <v>8.709461412219474</v>
+        <v>5.027773412406021</v>
       </c>
       <c r="D10">
-        <v>8.883011769997392</v>
+        <v>9.302420473099005</v>
       </c>
       <c r="E10">
-        <v>12.85380634434811</v>
+        <v>13.92215153614517</v>
       </c>
       <c r="F10">
-        <v>25.56073293313129</v>
+        <v>33.70866542213526</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.867900997288988</v>
+        <v>9.967288165549547</v>
       </c>
       <c r="K10">
-        <v>14.42554334007978</v>
+        <v>11.39776038798471</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.74001070388399</v>
+        <v>19.11064990517342</v>
       </c>
       <c r="O10">
-        <v>17.12126613176565</v>
+        <v>25.34386567196772</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.3156527249567</v>
+        <v>12.5187034924389</v>
       </c>
       <c r="C11">
-        <v>8.983401727911739</v>
+        <v>5.174812138324579</v>
       </c>
       <c r="D11">
-        <v>9.149669364944044</v>
+        <v>9.359208833258037</v>
       </c>
       <c r="E11">
-        <v>13.21718501863274</v>
+        <v>13.98800305192882</v>
       </c>
       <c r="F11">
-        <v>25.96862680739794</v>
+        <v>33.71588117223116</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.969889038977725</v>
+        <v>9.970103536249225</v>
       </c>
       <c r="K11">
-        <v>14.91322478396253</v>
+        <v>11.53836425012385</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.58103618215152</v>
+        <v>19.06853957198291</v>
       </c>
       <c r="O11">
-        <v>17.23853058380985</v>
+        <v>25.31241129402895</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.53728560987073</v>
+        <v>12.59380008679443</v>
       </c>
       <c r="C12">
-        <v>9.085152730542518</v>
+        <v>5.229301613752002</v>
       </c>
       <c r="D12">
-        <v>9.24922517405888</v>
+        <v>9.380855407790515</v>
       </c>
       <c r="E12">
-        <v>13.35339890854731</v>
+        <v>14.01327268560491</v>
       </c>
       <c r="F12">
-        <v>26.12542718763693</v>
+        <v>33.71977668883922</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.008800799755938</v>
+        <v>9.971402296710027</v>
       </c>
       <c r="K12">
-        <v>15.09419468214264</v>
+        <v>11.59139645286065</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.52109328942411</v>
+        <v>19.05284816355173</v>
       </c>
       <c r="O12">
-        <v>17.28554582012445</v>
+        <v>25.30127896705365</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.48976047571047</v>
+        <v>12.57765280612792</v>
       </c>
       <c r="C13">
-        <v>9.063326990579093</v>
+        <v>5.217619425923322</v>
       </c>
       <c r="D13">
-        <v>9.227847834526164</v>
+        <v>9.376187368525866</v>
       </c>
       <c r="E13">
-        <v>13.32412561914833</v>
+        <v>14.00781588503468</v>
       </c>
       <c r="F13">
-        <v>26.091553980133</v>
+        <v>33.71888603194299</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.000407769162215</v>
+        <v>9.971112256236177</v>
       </c>
       <c r="K13">
-        <v>15.05538379723107</v>
+        <v>11.57998519228782</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.53399216117298</v>
+        <v>19.05621627288575</v>
       </c>
       <c r="O13">
-        <v>17.27530264903463</v>
+        <v>25.30364185155896</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.33398017280906</v>
+        <v>12.52489339975292</v>
       </c>
       <c r="C14">
-        <v>8.991812580007933</v>
+        <v>5.179318935079358</v>
       </c>
       <c r="D14">
-        <v>9.157888576395843</v>
+        <v>9.36098695495814</v>
       </c>
       <c r="E14">
-        <v>13.22841963392959</v>
+        <v>13.99007542536082</v>
       </c>
       <c r="F14">
-        <v>25.98148020077426</v>
+        <v>33.71617836328576</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.973084592885676</v>
+        <v>9.970205729879549</v>
       </c>
       <c r="K14">
-        <v>14.92818733772101</v>
+        <v>11.54273175622748</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.57609968147154</v>
+        <v>19.06724352933519</v>
       </c>
       <c r="O14">
-        <v>17.24234570103993</v>
+        <v>25.31147981395896</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.23795173304193</v>
+        <v>12.49250147512438</v>
       </c>
       <c r="C15">
-        <v>8.947749687291433</v>
+        <v>5.155703439499116</v>
       </c>
       <c r="D15">
-        <v>9.114850303739424</v>
+        <v>9.351694286106795</v>
       </c>
       <c r="E15">
-        <v>13.16961406062938</v>
+        <v>13.97925173678235</v>
       </c>
       <c r="F15">
-        <v>25.91436037589904</v>
+        <v>33.7146712315926</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.956385778951931</v>
+        <v>9.969680720564352</v>
       </c>
       <c r="K15">
-        <v>14.84979438966977</v>
+        <v>11.51988397577946</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.60192426047577</v>
+        <v>19.07403119768929</v>
       </c>
       <c r="O15">
-        <v>17.2225013471433</v>
+        <v>25.31638225841669</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.67828137006329</v>
+        <v>12.3057767658625</v>
       </c>
       <c r="C16">
-        <v>8.691280854635169</v>
+        <v>5.017997913542508</v>
       </c>
       <c r="D16">
-        <v>8.865388182142974</v>
+        <v>9.298729971463954</v>
       </c>
       <c r="E16">
-        <v>12.82986786813046</v>
+        <v>13.91789555211591</v>
       </c>
       <c r="F16">
-        <v>25.53440569846727</v>
+        <v>33.70835673581789</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.861277486635907</v>
+        <v>9.967136787591798</v>
       </c>
       <c r="K16">
-        <v>14.39315204549655</v>
+        <v>11.38854467088096</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.75043788930522</v>
+        <v>19.11343764292369</v>
       </c>
       <c r="O16">
-        <v>17.11396252661588</v>
+        <v>25.34603017615566</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.32653385979215</v>
+        <v>12.19030611210318</v>
       </c>
       <c r="C17">
-        <v>8.530407127633168</v>
+        <v>4.931408578331538</v>
       </c>
       <c r="D17">
-        <v>8.709860842951478</v>
+        <v>9.266508217621096</v>
       </c>
       <c r="E17">
-        <v>12.61904316836519</v>
+        <v>13.88086750237039</v>
       </c>
       <c r="F17">
-        <v>25.30552604194707</v>
+        <v>33.70655691845121</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.803468234858739</v>
+        <v>9.965991661571204</v>
       </c>
       <c r="K17">
-        <v>14.10638429046877</v>
+        <v>11.30764825626559</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.84203995423218</v>
+        <v>19.13806742604474</v>
       </c>
       <c r="O17">
-        <v>17.05192121565764</v>
+        <v>25.36560349759318</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.12110985420258</v>
+        <v>12.1235764490747</v>
       </c>
       <c r="C18">
-        <v>8.436575940558509</v>
+        <v>4.880832015915844</v>
       </c>
       <c r="D18">
-        <v>8.619504591466491</v>
+        <v>9.248079505330658</v>
       </c>
       <c r="E18">
-        <v>12.49692460564514</v>
+        <v>13.85980037940443</v>
       </c>
       <c r="F18">
-        <v>25.17544072228595</v>
+        <v>33.70628444649606</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.770420734608116</v>
+        <v>9.96548602966266</v>
       </c>
       <c r="K18">
-        <v>13.93899601958537</v>
+        <v>11.26101581099817</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.89491883221601</v>
+        <v>19.15240149405546</v>
       </c>
       <c r="O18">
-        <v>17.01787444622181</v>
+        <v>25.37737007599648</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05102127642892</v>
+        <v>12.10093138632482</v>
       </c>
       <c r="C19">
-        <v>8.404582896282944</v>
+        <v>4.863575297050631</v>
       </c>
       <c r="D19">
-        <v>8.588758239367026</v>
+        <v>9.241858271195454</v>
       </c>
       <c r="E19">
-        <v>12.45543258282772</v>
+        <v>13.85270750794798</v>
       </c>
       <c r="F19">
-        <v>25.13166526028393</v>
+        <v>33.70632323756517</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.759266808849864</v>
+        <v>9.965341140808762</v>
       </c>
       <c r="K19">
-        <v>13.88190008508397</v>
+        <v>11.245210731808</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.91285660970408</v>
+        <v>19.15728359670769</v>
       </c>
       <c r="O19">
-        <v>17.00662498868857</v>
+        <v>25.3814413206601</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.36429925495448</v>
+        <v>12.20263122074554</v>
       </c>
       <c r="C20">
-        <v>8.547667044495173</v>
+        <v>4.940706208366094</v>
       </c>
       <c r="D20">
-        <v>8.726510590324853</v>
+        <v>9.269927589393689</v>
       </c>
       <c r="E20">
-        <v>12.64157518631518</v>
+        <v>13.8847854761342</v>
       </c>
       <c r="F20">
-        <v>25.32972948886465</v>
+        <v>33.70666958308986</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.809601263887216</v>
+        <v>9.966097732788375</v>
       </c>
       <c r="K20">
-        <v>14.13716425917954</v>
+        <v>11.31627084152734</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.83226913720537</v>
+        <v>19.13542819917445</v>
       </c>
       <c r="O20">
-        <v>17.05835538631604</v>
+        <v>25.36346724090044</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.37986333124272</v>
+        <v>12.54040592846632</v>
       </c>
       <c r="C21">
-        <v>9.012871904065092</v>
+        <v>5.190601104266028</v>
       </c>
       <c r="D21">
-        <v>9.178476172024141</v>
+        <v>9.365447957532929</v>
       </c>
       <c r="E21">
-        <v>13.25656902532013</v>
+        <v>13.99527732908541</v>
       </c>
       <c r="F21">
-        <v>26.01374834929833</v>
+        <v>33.71694212560449</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.981102302496421</v>
+        <v>9.970465693599166</v>
       </c>
       <c r="K21">
-        <v>14.96564829249612</v>
+        <v>11.55368011765265</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.56372496876721</v>
+        <v>19.06399764936349</v>
       </c>
       <c r="O21">
-        <v>17.25195436071792</v>
+        <v>25.30915646612126</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.01630837687746</v>
+        <v>12.75785740905402</v>
       </c>
       <c r="C22">
-        <v>9.305348963552666</v>
+        <v>5.346977516693893</v>
       </c>
       <c r="D22">
-        <v>9.465563322349482</v>
+        <v>9.428696535029399</v>
       </c>
       <c r="E22">
-        <v>13.65038004898983</v>
+        <v>14.06942325355131</v>
       </c>
       <c r="F22">
-        <v>26.47441533045289</v>
+        <v>33.73043356641664</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.094878006910908</v>
+        <v>9.974675854710672</v>
       </c>
       <c r="K22">
-        <v>15.48553533837361</v>
+        <v>11.7075868806756</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.38969894820888</v>
+        <v>19.01879863684462</v>
       </c>
       <c r="O22">
-        <v>17.3937368827523</v>
+        <v>25.27820113454484</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.67910283372008</v>
+        <v>12.64212528444798</v>
       </c>
       <c r="C23">
-        <v>9.150304247047789</v>
+        <v>5.264154510522153</v>
       </c>
       <c r="D23">
-        <v>9.313110016674825</v>
+        <v>9.394869814903331</v>
       </c>
       <c r="E23">
-        <v>13.44095910630651</v>
+        <v>14.02967915956223</v>
       </c>
       <c r="F23">
-        <v>26.22731515659406</v>
+        <v>33.7226136318071</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.03400447530632</v>
+        <v>9.972305158607783</v>
       </c>
       <c r="K23">
-        <v>15.21002466290512</v>
+        <v>11.62557456533171</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.48245552446665</v>
+        <v>19.04278671384802</v>
       </c>
       <c r="O23">
-        <v>17.31663751087225</v>
+        <v>25.29430665295654</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.34723549038597</v>
+        <v>12.19706010495568</v>
       </c>
       <c r="C24">
-        <v>8.539868018538806</v>
+        <v>4.936505225955912</v>
       </c>
       <c r="D24">
-        <v>8.718986168803928</v>
+        <v>9.268381391175119</v>
       </c>
       <c r="E24">
-        <v>12.63139129782821</v>
+        <v>13.88301347114573</v>
       </c>
       <c r="F24">
-        <v>25.31878243326986</v>
+        <v>33.70661627284475</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.806827935146052</v>
+        <v>9.966049302221322</v>
       </c>
       <c r="K24">
-        <v>14.12325649203286</v>
+        <v>11.31237295320042</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.83668584950683</v>
+        <v>19.13662085129473</v>
       </c>
       <c r="O24">
-        <v>17.0554414543731</v>
+        <v>25.36443144278459</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.79155117691424</v>
+        <v>11.70533160283831</v>
       </c>
       <c r="C25">
-        <v>7.831715517252468</v>
+        <v>4.553606133814425</v>
       </c>
       <c r="D25">
-        <v>8.043955595789653</v>
+        <v>9.135995941296491</v>
       </c>
       <c r="E25">
-        <v>11.72580636375908</v>
+        <v>13.73368429218426</v>
       </c>
       <c r="F25">
-        <v>24.39858201285715</v>
+        <v>33.718520901396</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.569615989300153</v>
+        <v>9.965154271169791</v>
       </c>
       <c r="K25">
-        <v>12.85736176344909</v>
+        <v>10.97081581670394</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.22622855299232</v>
+        <v>19.24425161500128</v>
       </c>
       <c r="O25">
-        <v>16.83586959121221</v>
+        <v>25.45950547494625</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_81/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_81/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.33622468515689</v>
+        <v>13.54149532268309</v>
       </c>
       <c r="C2">
-        <v>4.246804205994255</v>
+        <v>7.267684072983152</v>
       </c>
       <c r="D2">
-        <v>9.042552701705244</v>
+        <v>7.519677512647134</v>
       </c>
       <c r="E2">
-        <v>13.63193449268408</v>
+        <v>11.03480306866727</v>
       </c>
       <c r="F2">
-        <v>33.75237425238953</v>
+        <v>23.77362475229262</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.96955608028912</v>
+        <v>6.402334870194296</v>
       </c>
       <c r="K2">
-        <v>10.71800481330014</v>
+        <v>11.84372607991284</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.32907680124848</v>
+        <v>12.52061675796649</v>
       </c>
       <c r="O2">
-        <v>25.54615279963864</v>
+        <v>16.72369894075778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.0833433801261</v>
+        <v>12.62798616078626</v>
       </c>
       <c r="C3">
-        <v>4.023729007910307</v>
+        <v>6.859128757149881</v>
       </c>
       <c r="D3">
-        <v>8.98200666143981</v>
+        <v>7.148912551768703</v>
       </c>
       <c r="E3">
-        <v>13.56835971976751</v>
+        <v>10.55385111076728</v>
       </c>
       <c r="F3">
-        <v>33.79094773599699</v>
+        <v>23.38329887083977</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.97570660182655</v>
+        <v>6.29390283902975</v>
       </c>
       <c r="K3">
-        <v>10.54684682131501</v>
+        <v>11.10556969467966</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.39007248772496</v>
+        <v>12.72538434285744</v>
       </c>
       <c r="O3">
-        <v>25.61521826754155</v>
+        <v>16.67641897281314</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.92732458837231</v>
+        <v>12.03402205494778</v>
       </c>
       <c r="C4">
-        <v>3.879456251352308</v>
+        <v>6.595477273666776</v>
       </c>
       <c r="D4">
-        <v>8.946288665052165</v>
+        <v>6.914320690300127</v>
       </c>
       <c r="E4">
-        <v>13.53206170138501</v>
+        <v>10.25333908320257</v>
       </c>
       <c r="F4">
-        <v>33.82232951032452</v>
+        <v>23.1600748680369</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.981048082998392</v>
+        <v>6.229868778707587</v>
       </c>
       <c r="K4">
-        <v>10.44218786508059</v>
+        <v>10.62704678837979</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.42926453858477</v>
+        <v>12.85387062100271</v>
       </c>
       <c r="O4">
-        <v>25.66271270910524</v>
+        <v>16.66081741129933</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86365212720371</v>
+        <v>11.78361302768526</v>
       </c>
       <c r="C5">
-        <v>3.818859765322129</v>
+        <v>6.48485794011415</v>
       </c>
       <c r="D5">
-        <v>8.93211242421083</v>
+        <v>6.817101133749798</v>
       </c>
       <c r="E5">
-        <v>13.51797013938435</v>
+        <v>10.12974974694494</v>
       </c>
       <c r="F5">
-        <v>33.83705123336895</v>
+        <v>23.07324111968243</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.983618710367256</v>
+        <v>6.204429881493928</v>
       </c>
       <c r="K5">
-        <v>10.39970067960938</v>
+        <v>10.42569102091459</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.44567458088835</v>
+        <v>12.90694610976303</v>
       </c>
       <c r="O5">
-        <v>25.68334431743754</v>
+        <v>16.6577223954321</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85307654011682</v>
+        <v>11.74152622231825</v>
       </c>
       <c r="C6">
-        <v>3.808689879186618</v>
+        <v>6.466299027234351</v>
       </c>
       <c r="D6">
-        <v>8.929781726051914</v>
+        <v>6.80086398455519</v>
       </c>
       <c r="E6">
-        <v>13.51567286425033</v>
+        <v>10.10916541108577</v>
       </c>
       <c r="F6">
-        <v>33.83961245800074</v>
+        <v>23.05907168428534</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.984069362787988</v>
+        <v>6.20024579847077</v>
       </c>
       <c r="K6">
-        <v>10.3926570754595</v>
+        <v>10.39187267910988</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.44842600683022</v>
+        <v>12.91580316198129</v>
       </c>
       <c r="O6">
-        <v>25.68684725624409</v>
+        <v>16.65740214505814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.9264661306821</v>
+        <v>12.03067888078746</v>
       </c>
       <c r="C7">
-        <v>3.87864628317807</v>
+        <v>6.593998235631352</v>
       </c>
       <c r="D7">
-        <v>8.946095927977094</v>
+        <v>6.913015940145972</v>
       </c>
       <c r="E7">
-        <v>13.53186880764533</v>
+        <v>10.25167662702529</v>
       </c>
       <c r="F7">
-        <v>33.8225202278557</v>
+        <v>23.15888707995724</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.981081155932534</v>
+        <v>6.229523026791674</v>
       </c>
       <c r="K7">
-        <v>10.44161414063493</v>
+        <v>10.6243569449195</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.42948407107269</v>
+        <v>12.85458348602775</v>
       </c>
       <c r="O7">
-        <v>25.6629857856886</v>
+        <v>16.6607626127456</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.24924244445613</v>
+        <v>13.23335025010953</v>
       </c>
       <c r="C8">
-        <v>4.171421182082246</v>
+        <v>7.129489909204294</v>
       </c>
       <c r="D8">
-        <v>9.021381674150639</v>
+        <v>7.393346439785454</v>
       </c>
       <c r="E8">
-        <v>13.6094532337912</v>
+        <v>10.87015269560639</v>
       </c>
       <c r="F8">
-        <v>33.76407565702539</v>
+        <v>23.63563174172461</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.971352220041329</v>
+        <v>6.36442948381835</v>
       </c>
       <c r="K8">
-        <v>10.65893162965606</v>
+        <v>11.59445955829679</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.34974767665808</v>
+        <v>12.59066219191011</v>
       </c>
       <c r="O8">
-        <v>25.56890929775288</v>
+        <v>16.70454210095026</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.87227593528181</v>
+        <v>15.33169055476296</v>
       </c>
       <c r="C9">
-        <v>4.686488946343938</v>
+        <v>8.076898869228227</v>
       </c>
       <c r="D9">
-        <v>9.180000155021679</v>
+        <v>8.27574387944548</v>
       </c>
       <c r="E9">
-        <v>13.78274926925017</v>
+        <v>12.03489527266391</v>
       </c>
       <c r="F9">
-        <v>33.71061283972599</v>
+        <v>24.70045624084406</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.964671247500929</v>
+        <v>6.648419621624593</v>
       </c>
       <c r="K9">
-        <v>11.08620502099705</v>
+        <v>13.29639213653508</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.20713362415489</v>
+        <v>12.0939091537749</v>
       </c>
       <c r="O9">
-        <v>25.42488916265317</v>
+        <v>16.90186911991686</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.31890842837118</v>
+        <v>16.71799836272538</v>
       </c>
       <c r="C10">
-        <v>5.027773412406021</v>
+        <v>8.709461412219374</v>
       </c>
       <c r="D10">
-        <v>9.302420473099005</v>
+        <v>8.88301176999742</v>
       </c>
       <c r="E10">
-        <v>13.92215153614517</v>
+        <v>12.85380634434811</v>
       </c>
       <c r="F10">
-        <v>33.70866542213526</v>
+        <v>25.56073293313121</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.967288165549547</v>
+        <v>6.867900997288999</v>
       </c>
       <c r="K10">
-        <v>11.39776038798471</v>
+        <v>14.42554334007979</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.11064990517342</v>
+        <v>11.74001070388396</v>
       </c>
       <c r="O10">
-        <v>25.34386567196772</v>
+        <v>17.12126613176553</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.5187034924389</v>
+        <v>17.31565272495676</v>
       </c>
       <c r="C11">
-        <v>5.174812138324579</v>
+        <v>8.98340172791174</v>
       </c>
       <c r="D11">
-        <v>9.359208833258037</v>
+        <v>9.149669364944065</v>
       </c>
       <c r="E11">
-        <v>13.98800305192882</v>
+        <v>13.21718501863274</v>
       </c>
       <c r="F11">
-        <v>33.71588117223116</v>
+        <v>25.96862680739796</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.970103536249225</v>
+        <v>6.969889038977718</v>
       </c>
       <c r="K11">
-        <v>11.53836425012385</v>
+        <v>14.91322478396256</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.06853957198291</v>
+        <v>11.58103618215152</v>
       </c>
       <c r="O11">
-        <v>25.31241129402895</v>
+        <v>17.23853058380983</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.59380008679443</v>
+        <v>17.53728560987082</v>
       </c>
       <c r="C12">
-        <v>5.229301613752002</v>
+        <v>9.085152730542486</v>
       </c>
       <c r="D12">
-        <v>9.380855407790515</v>
+        <v>9.249225174058845</v>
       </c>
       <c r="E12">
-        <v>14.01327268560491</v>
+        <v>13.35339890854727</v>
       </c>
       <c r="F12">
-        <v>33.71977668883922</v>
+        <v>26.12542718763678</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.971402296710027</v>
+        <v>7.008800799755919</v>
       </c>
       <c r="K12">
-        <v>11.59139645286065</v>
+        <v>15.0941946821427</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.05284816355173</v>
+        <v>11.52109328942404</v>
       </c>
       <c r="O12">
-        <v>25.30127896705365</v>
+        <v>17.28554582012434</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.57765280612792</v>
+        <v>17.48976047571054</v>
       </c>
       <c r="C13">
-        <v>5.217619425923322</v>
+        <v>9.063326990579077</v>
       </c>
       <c r="D13">
-        <v>9.376187368525866</v>
+        <v>9.227847834526164</v>
       </c>
       <c r="E13">
-        <v>14.00781588503468</v>
+        <v>13.32412561914838</v>
       </c>
       <c r="F13">
-        <v>33.71888603194299</v>
+        <v>26.09155398013292</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.971112256236177</v>
+        <v>7.000407769162252</v>
       </c>
       <c r="K13">
-        <v>11.57998519228782</v>
+        <v>15.05538379723112</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.05621627288575</v>
+        <v>11.53399216117298</v>
       </c>
       <c r="O13">
-        <v>25.30364185155896</v>
+        <v>17.27530264903458</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.52489339975292</v>
+        <v>17.3339801728092</v>
       </c>
       <c r="C14">
-        <v>5.179318935079358</v>
+        <v>8.991812580007762</v>
       </c>
       <c r="D14">
-        <v>9.36098695495814</v>
+        <v>9.157888576395859</v>
       </c>
       <c r="E14">
-        <v>13.99007542536082</v>
+        <v>13.22841963392957</v>
       </c>
       <c r="F14">
-        <v>33.71617836328576</v>
+        <v>25.9814802007742</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.970205729879549</v>
+        <v>6.973084592885649</v>
       </c>
       <c r="K14">
-        <v>11.54273175622748</v>
+        <v>14.92818733772108</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.06724352933519</v>
+        <v>11.57609968147147</v>
       </c>
       <c r="O14">
-        <v>25.31147981395896</v>
+        <v>17.24234570103986</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.49250147512438</v>
+        <v>17.23795173304195</v>
       </c>
       <c r="C15">
-        <v>5.155703439499116</v>
+        <v>8.947749687291386</v>
       </c>
       <c r="D15">
-        <v>9.351694286106795</v>
+        <v>9.114850303739425</v>
       </c>
       <c r="E15">
-        <v>13.97925173678235</v>
+        <v>13.1696140606294</v>
       </c>
       <c r="F15">
-        <v>33.7146712315926</v>
+        <v>25.91436037589898</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.969680720564352</v>
+        <v>6.95638577895197</v>
       </c>
       <c r="K15">
-        <v>11.51988397577946</v>
+        <v>14.84979438966978</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.07403119768929</v>
+        <v>11.60192426047577</v>
       </c>
       <c r="O15">
-        <v>25.31638225841669</v>
+        <v>17.22250134714326</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.3057767658625</v>
+        <v>16.6782813700633</v>
       </c>
       <c r="C16">
-        <v>5.017997913542508</v>
+        <v>8.691280854635155</v>
       </c>
       <c r="D16">
-        <v>9.298729971463954</v>
+        <v>8.865388182142935</v>
       </c>
       <c r="E16">
-        <v>13.91789555211591</v>
+        <v>12.82986786813043</v>
       </c>
       <c r="F16">
-        <v>33.70835673581789</v>
+        <v>25.53440569846724</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.967136787591798</v>
+        <v>6.861277486635904</v>
       </c>
       <c r="K16">
-        <v>11.38854467088096</v>
+        <v>14.39315204549655</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.11343764292369</v>
+        <v>11.75043788930522</v>
       </c>
       <c r="O16">
-        <v>25.34603017615566</v>
+        <v>17.11396252661591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.19030611210318</v>
+        <v>16.32653385979216</v>
       </c>
       <c r="C17">
-        <v>4.931408578331538</v>
+        <v>8.530407127633088</v>
       </c>
       <c r="D17">
-        <v>9.266508217621096</v>
+        <v>8.709860842951468</v>
       </c>
       <c r="E17">
-        <v>13.88086750237039</v>
+        <v>12.6190431683652</v>
       </c>
       <c r="F17">
-        <v>33.70655691845121</v>
+        <v>25.30552604194701</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.965991661571204</v>
+        <v>6.803468234858769</v>
       </c>
       <c r="K17">
-        <v>11.30764825626559</v>
+        <v>14.10638429046874</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.13806742604474</v>
+        <v>11.84203995423214</v>
       </c>
       <c r="O17">
-        <v>25.36560349759318</v>
+        <v>17.05192121565758</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.1235764490747</v>
+        <v>16.12110985420261</v>
       </c>
       <c r="C18">
-        <v>4.880832015915844</v>
+        <v>8.436575940558603</v>
       </c>
       <c r="D18">
-        <v>9.248079505330658</v>
+        <v>8.619504591466525</v>
       </c>
       <c r="E18">
-        <v>13.85980037940443</v>
+        <v>12.49692460564515</v>
       </c>
       <c r="F18">
-        <v>33.70628444649606</v>
+        <v>25.17544072228585</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.96548602966266</v>
+        <v>6.770420734608147</v>
       </c>
       <c r="K18">
-        <v>11.26101581099817</v>
+        <v>13.93899601958543</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.15240149405546</v>
+        <v>11.89491883221595</v>
       </c>
       <c r="O18">
-        <v>25.37737007599648</v>
+        <v>17.0178744462217</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.10093138632482</v>
+        <v>16.05102127642887</v>
       </c>
       <c r="C19">
-        <v>4.863575297050631</v>
+        <v>8.404582896283138</v>
       </c>
       <c r="D19">
-        <v>9.241858271195454</v>
+        <v>8.588758239367046</v>
       </c>
       <c r="E19">
-        <v>13.85270750794798</v>
+        <v>12.4554325828277</v>
       </c>
       <c r="F19">
-        <v>33.70632323756517</v>
+        <v>25.13166526028399</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.965341140808762</v>
+        <v>6.75926680884981</v>
       </c>
       <c r="K19">
-        <v>11.245210731808</v>
+        <v>13.881900085084</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.15728359670769</v>
+        <v>11.91285660970411</v>
       </c>
       <c r="O19">
-        <v>25.3814413206601</v>
+        <v>17.0066249886886</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.20263122074554</v>
+        <v>16.36429925495444</v>
       </c>
       <c r="C20">
-        <v>4.940706208366094</v>
+        <v>8.547667044495368</v>
       </c>
       <c r="D20">
-        <v>9.269927589393689</v>
+        <v>8.72651059032488</v>
       </c>
       <c r="E20">
-        <v>13.8847854761342</v>
+        <v>12.64157518631516</v>
       </c>
       <c r="F20">
-        <v>33.70666958308986</v>
+        <v>25.32972948886467</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.966097732788375</v>
+        <v>6.809601263887162</v>
       </c>
       <c r="K20">
-        <v>11.31627084152734</v>
+        <v>14.13716425917955</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.13542819917445</v>
+        <v>11.83226913720537</v>
       </c>
       <c r="O20">
-        <v>25.36346724090044</v>
+        <v>17.05835538631603</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.54040592846632</v>
+        <v>17.37986333124275</v>
       </c>
       <c r="C21">
-        <v>5.190601104266028</v>
+        <v>9.012871904065184</v>
       </c>
       <c r="D21">
-        <v>9.365447957532929</v>
+        <v>9.17847617202416</v>
       </c>
       <c r="E21">
-        <v>13.99527732908541</v>
+        <v>13.25656902532014</v>
       </c>
       <c r="F21">
-        <v>33.71694212560449</v>
+        <v>26.01374834929829</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.970465693599166</v>
+        <v>6.981102302496393</v>
       </c>
       <c r="K21">
-        <v>11.55368011765265</v>
+        <v>14.96564829249616</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.06399764936349</v>
+        <v>11.56372496876711</v>
       </c>
       <c r="O21">
-        <v>25.30915646612126</v>
+        <v>17.25195436071783</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.75785740905402</v>
+        <v>18.01630837687744</v>
       </c>
       <c r="C22">
-        <v>5.346977516693893</v>
+        <v>9.305348963552653</v>
       </c>
       <c r="D22">
-        <v>9.428696535029399</v>
+        <v>9.465563322349457</v>
       </c>
       <c r="E22">
-        <v>14.06942325355131</v>
+        <v>13.65038004898983</v>
       </c>
       <c r="F22">
-        <v>33.73043356641664</v>
+        <v>26.47441533045277</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.974675854710672</v>
+        <v>7.094878006910903</v>
       </c>
       <c r="K22">
-        <v>11.7075868806756</v>
+        <v>15.48553533837361</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.01879863684462</v>
+        <v>11.38969894820878</v>
       </c>
       <c r="O22">
-        <v>25.27820113454484</v>
+        <v>17.39373688275224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.64212528444798</v>
+        <v>17.67910283372013</v>
       </c>
       <c r="C23">
-        <v>5.264154510522153</v>
+        <v>9.150304247047647</v>
       </c>
       <c r="D23">
-        <v>9.394869814903331</v>
+        <v>9.31311001667479</v>
       </c>
       <c r="E23">
-        <v>14.02967915956223</v>
+        <v>13.4409591063065</v>
       </c>
       <c r="F23">
-        <v>33.7226136318071</v>
+        <v>26.22731515659401</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.972305158607783</v>
+        <v>7.034004475306328</v>
       </c>
       <c r="K23">
-        <v>11.62557456533171</v>
+        <v>15.21002466290513</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.04278671384802</v>
+        <v>11.48245552446661</v>
       </c>
       <c r="O23">
-        <v>25.29430665295654</v>
+        <v>17.31663751087222</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.19706010495568</v>
+        <v>16.347235490386</v>
       </c>
       <c r="C24">
-        <v>4.936505225955912</v>
+        <v>8.539868018538742</v>
       </c>
       <c r="D24">
-        <v>9.268381391175119</v>
+        <v>8.718986168803943</v>
       </c>
       <c r="E24">
-        <v>13.88301347114573</v>
+        <v>12.63139129782822</v>
       </c>
       <c r="F24">
-        <v>33.70661627284475</v>
+        <v>25.31878243326983</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.966049302221322</v>
+        <v>6.80682793514606</v>
       </c>
       <c r="K24">
-        <v>11.31237295320042</v>
+        <v>14.12325649203285</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.13662085129473</v>
+        <v>11.83668584950676</v>
       </c>
       <c r="O24">
-        <v>25.36443144278459</v>
+        <v>17.05544145437299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.70533160283831</v>
+        <v>14.79155117691424</v>
       </c>
       <c r="C25">
-        <v>4.553606133814425</v>
+        <v>7.831715517252532</v>
       </c>
       <c r="D25">
-        <v>9.135995941296491</v>
+        <v>8.043955595789644</v>
       </c>
       <c r="E25">
-        <v>13.73368429218426</v>
+        <v>11.72580636375905</v>
       </c>
       <c r="F25">
-        <v>33.718520901396</v>
+        <v>24.39858201285709</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.965154271169791</v>
+        <v>6.569615989300148</v>
       </c>
       <c r="K25">
-        <v>10.97081581670394</v>
+        <v>12.85736176344908</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.24425161500128</v>
+        <v>12.22622855299229</v>
       </c>
       <c r="O25">
-        <v>25.45950547494625</v>
+        <v>16.83586959121216</v>
       </c>
     </row>
   </sheetData>
